--- a/Results/Test_Powietrze_99_Gruzlica_99_Ludnosc_99_kendall.xlsx
+++ b/Results/Test_Powietrze_99_Gruzlica_99_Ludnosc_99_kendall.xlsx
@@ -473,61 +473,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['POLSKA']</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[0.15217391304347824]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.13768115942028986]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.31275941965675913]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.3626613999876752]</t>
-        </is>
+          <t>PODLASKIE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.2898550724637681</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7536231884057971</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04925402223617705</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.301907449478841e-09</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>['POMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[0.536231884057971]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[-0.8602555002391438]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.00013569693294094353]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[4.091456946048519e-09]</t>
-        </is>
+          <t>MAZOWIECKIE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7753623188405797</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.8260869565217391</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.481533833685504e-09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.960503200513917e-11</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -539,61 +523,45 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>['LUBELSKIE']</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[0.06521739130434782]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.7318840579710145]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[0.6765261156179087]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[2.3984338201206268e-08]</t>
-        </is>
+          <t>LUBUSKIE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05072463768115942</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3893413809527089</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.749761450490796</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['LUBUSKIE']</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[0.13043478260869565]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.05072463768115942]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[0.38934138095270887]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0.749761450490796]</t>
-        </is>
+          <t>WARMIŃSKO-MAZURSKIE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1014492753623188</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1197824114257036</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5071416902683175</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4129021150730697</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -605,97 +573,73 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>['ŚLĄSKIE']</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[0.18840579710144928]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.7028985507246377]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[0.20826013369971733]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1.2265451832839693e-07]</t>
-        </is>
+          <t>KUJAWSKO-POMORSKIE</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.1521739130434782</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.07971014492753624</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3127594196567591</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6061655660716706</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>['PODLASKIE']</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[-0.28985507246376807]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[0.7536231884057971]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[0.04925402223617705]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[6.301907449478841e-09]</t>
-        </is>
+          <t>POLSKA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1521739130434782</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1376811594202899</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3127594196567591</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3626613999876752</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>['MAZOWIECKIE']</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[0.7753623188405797]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[-0.8260869565217391]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[1.481533833685504e-09]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[2.960503200513917e-11]</t>
-        </is>
+          <t>OPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.1594202898550725</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7949196394614874</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2895519664901889</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.515523902768597e-08</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -704,31 +648,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>['ŚWIĘTOKRZYSKIE']</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[-0.4275362318840579]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[0.7971014492753623]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[0.002989415703746229]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[3.0647335684338345e-10]</t>
-        </is>
+          <t>ŚLĄSKIE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1884057971014493</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7028985507246377</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2082601336997173</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.226545183283969e-07</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -737,127 +673,95 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>['WIELKOPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[-0.7028985507246377]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[-0.8602555002391438]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[1.2265451832839693e-07]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[4.091456946048519e-09]</t>
-        </is>
+          <t>ZACHODNIOPOMORSKIE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08348471099367218</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0780550500276803</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5682187120301015</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['DOLNOŚLĄSKIE']</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[-0.13043478260869565]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[0.21739130434782608]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[0.38934138095270887]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[0.1446229127420921]</t>
-        </is>
+          <t>MAŁOPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.6014492753623188</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.7826086956521739</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.298666654989479e-05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.895809693173601e-10</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>['OPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[-0.15942028985507248]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[0.7949196394614874]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[0.28955196649018894]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[5.5155239027685967e-08]</t>
-        </is>
+          <t>PODKARPACKIE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.07246376811594202</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.07246376811594202</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6409517533780805</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6409517533780805</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>['ŁÓDZKIE']</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[0.007246376811594203]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[0.8695652173913043]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[0.9804334461613707]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[4.617294042497529e-13]</t>
-        </is>
+          <t>LUBELSKIE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.06521739130434782</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7318840579710145</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6765261156179087</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.398433820120627e-08</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -869,127 +773,95 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['WARMIŃSKO-MAZURSKIE']</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[-0.10144927536231883]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[0.11978241142570356]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[0.5071416902683175]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[0.41290211507306973]</t>
-        </is>
+          <t>POMORSKIE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.536231884057971</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.8602555002391438</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0001356969329409435</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.091456946048519e-09</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>['ZACHODNIOPOMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[0.2608695652173913]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[0.08348471099367218]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[0.0780550500276803]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[0.5682187120301015]</t>
-        </is>
+          <t>ŁÓDZKIE</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.007246376811594203</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9804334461613707</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.617294042497529e-13</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>['PODKARPACKIE']</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[-0.07246376811594202]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[-0.07246376811594202]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[0.6409517533780805]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[0.6409517533780805]</t>
-        </is>
+          <t>WIELKOPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.7028985507246377</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.8602555002391438</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.226545183283969e-07</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.091456946048519e-09</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>['MAŁOPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[-0.6014492753623188]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[-0.782608695652174]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[1.2986666549894791e-05]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[8.895809693173601e-10]</t>
-        </is>
+          <t>ŚWIĘTOKRZYSKIE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.4275362318840579</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7971014492753623</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.002989415703746229</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.064733568433835e-10</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1001,28 +873,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>['KUJAWSKO-POMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[-0.15217391304347824]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[-0.07971014492753624]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[0.31275941965675913]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[0.6061655660716706]</t>
-        </is>
+          <t>DOLNOŚLĄSKIE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.1304347826086956</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3893413809527089</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1446229127420921</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>

--- a/Results/Test_Powietrze_99_Gruzlica_99_Ludnosc_99_kendall.xlsx
+++ b/Results/Test_Powietrze_99_Gruzlica_99_Ludnosc_99_kendall.xlsx
@@ -1,37 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Eksploracja danych\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F7041D-02A4-4E85-8082-1005552F0E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Administrative_Unit</t>
+  </si>
+  <si>
+    <t>Correlation_1_3</t>
+  </si>
+  <si>
+    <t>Correlation_2_3</t>
+  </si>
+  <si>
+    <t>P-Value_1_3</t>
+  </si>
+  <si>
+    <t>P-Value_2_3</t>
+  </si>
+  <si>
+    <t>Significance_1_3</t>
+  </si>
+  <si>
+    <t>Significance_2_3</t>
+  </si>
+  <si>
+    <t>PODLASKIE</t>
+  </si>
+  <si>
+    <t>MAZOWIECKIE</t>
+  </si>
+  <si>
+    <t>LUBUSKIE</t>
+  </si>
+  <si>
+    <t>WARMIŃSKO-MAZURSKIE</t>
+  </si>
+  <si>
+    <t>KUJAWSKO-POMORSKIE</t>
+  </si>
+  <si>
+    <t>POLSKA</t>
+  </si>
+  <si>
+    <t>OPOLSKIE</t>
+  </si>
+  <si>
+    <t>ŚLĄSKIE</t>
+  </si>
+  <si>
+    <t>ZACHODNIOPOMORSKIE</t>
+  </si>
+  <si>
+    <t>MAŁOPOLSKIE</t>
+  </si>
+  <si>
+    <t>PODKARPACKIE</t>
+  </si>
+  <si>
+    <t>LUBELSKIE</t>
+  </si>
+  <si>
+    <t>POMORSKIE</t>
+  </si>
+  <si>
+    <t>ŁÓDZKIE</t>
+  </si>
+  <si>
+    <t>WIELKOPOLSKIE</t>
+  </si>
+  <si>
+    <t>ŚWIĘTOKRZYSKIE</t>
+  </si>
+  <si>
+    <t>DOLNOŚLĄSKIE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +129,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,73 +453,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Administrative_Unit</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation_1_3</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation_2_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P-Value_1_3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P-Value_2_3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Significance_1_3</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Significance_2_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PODLASKIE</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.2898550724637681</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7536231884057971</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04925402223617705</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.301907449478841e-09</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>-0.28985507246376813</v>
+      </c>
+      <c r="C2">
+        <v>0.75362318840579712</v>
+      </c>
+      <c r="D2">
+        <v>4.9254022236177052E-2</v>
+      </c>
+      <c r="E2">
+        <v>6.3019074494788409E-9</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -495,23 +514,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MAZOWIECKIE</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7753623188405797</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.8260869565217391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.481533833685504e-09</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.960503200513917e-11</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.77536231884057971</v>
+      </c>
+      <c r="C3">
+        <v>-0.82608695652173914</v>
+      </c>
+      <c r="D3">
+        <v>1.4815338336855041E-9</v>
+      </c>
+      <c r="E3">
+        <v>2.9605032005139173E-11</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -520,23 +537,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LUBUSKIE</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05072463768115942</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3893413809527089</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.749761450490796</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.13043478260869559</v>
+      </c>
+      <c r="C4">
+        <v>5.0724637681159417E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.38934138095270893</v>
+      </c>
+      <c r="E4">
+        <v>0.74976145049079601</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -545,23 +560,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>WARMIŃSKO-MAZURSKIE</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.1014492753623188</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>-0.10144927536231881</v>
+      </c>
+      <c r="C5">
         <v>0.1197824114257036</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.5071416902683175</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4129021150730697</v>
+      <c r="D5">
+        <v>0.50714169026831746</v>
+      </c>
+      <c r="E5">
+        <v>0.41290211507306968</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -570,22 +583,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KUJAWSKO-POMORSKIE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.1521739130434782</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.07971014492753624</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3127594196567591</v>
-      </c>
-      <c r="E6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>-0.15217391304347819</v>
+      </c>
+      <c r="C6">
+        <v>-7.9710144927536239E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.31275941965675907</v>
+      </c>
+      <c r="E6">
         <v>0.6061655660716706</v>
       </c>
       <c r="F6" t="b">
@@ -595,23 +606,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>POLSKA</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1521739130434782</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1376811594202899</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3127594196567591</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3626613999876752</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.15217391304347819</v>
+      </c>
+      <c r="C7">
+        <v>0.13768115942028991</v>
+      </c>
+      <c r="D7">
+        <v>0.31275941965675907</v>
+      </c>
+      <c r="E7">
+        <v>0.36266139998767521</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -620,23 +629,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>OPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.1594202898550725</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7949196394614874</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.2895519664901889</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.515523902768597e-08</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>-0.15942028985507251</v>
+      </c>
+      <c r="C8">
+        <v>0.79491963946148736</v>
+      </c>
+      <c r="D8">
+        <v>0.28955196649018888</v>
+      </c>
+      <c r="E8">
+        <v>5.5155239027685973E-8</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -645,23 +652,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ŚLĄSKIE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1884057971014493</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7028985507246377</v>
-      </c>
-      <c r="D9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.18840579710144931</v>
+      </c>
+      <c r="C9">
+        <v>0.70289855072463769</v>
+      </c>
+      <c r="D9">
         <v>0.2082601336997173</v>
       </c>
-      <c r="E9" t="n">
-        <v>1.226545183283969e-07</v>
+      <c r="E9">
+        <v>1.226545183283969E-7</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -670,23 +675,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ZACHODNIOPOMORSKIE</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
         <v>0.2608695652173913</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.08348471099367218</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0780550500276803</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5682187120301015</v>
+      <c r="C10">
+        <v>8.3484710993672176E-2</v>
+      </c>
+      <c r="D10">
+        <v>7.8055050027680303E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.56821871203010155</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -695,23 +698,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MAŁOPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.6014492753623188</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.7826086956521739</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.298666654989479e-05</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8.895809693173601e-10</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>-0.60144927536231885</v>
+      </c>
+      <c r="C11">
+        <v>-0.78260869565217395</v>
+      </c>
+      <c r="D11">
+        <v>1.298666654989479E-5</v>
+      </c>
+      <c r="E11">
+        <v>8.8958096931736012E-10</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -720,23 +721,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PODKARPACKIE</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.07246376811594202</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.07246376811594202</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6409517533780805</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6409517533780805</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>-7.2463768115942018E-2</v>
+      </c>
+      <c r="C12">
+        <v>-7.2463768115942018E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.64095175337808052</v>
+      </c>
+      <c r="E12">
+        <v>0.64095175337808052</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -745,23 +744,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>LUBELSKIE</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7318840579710145</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.6765261156179087</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.398433820120627e-08</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.73188405797101452</v>
+      </c>
+      <c r="D13">
+        <v>0.67652611561790865</v>
+      </c>
+      <c r="E13">
+        <v>2.3984338201206271E-8</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -770,23 +767,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>POMORSKIE</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.536231884057971</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.8602555002391438</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0001356969329409435</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.091456946048519e-09</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.53623188405797095</v>
+      </c>
+      <c r="C14">
+        <v>-0.86025550023914377</v>
+      </c>
+      <c r="D14">
+        <v>1.356969329409435E-4</v>
+      </c>
+      <c r="E14">
+        <v>4.0914569460485186E-9</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -795,23 +790,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ŁÓDZKIE</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.007246376811594203</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.9804334461613707</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4.617294042497529e-13</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="C15">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="D15">
+        <v>0.98043344616137074</v>
+      </c>
+      <c r="E15">
+        <v>4.6172940424975293E-13</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -820,23 +813,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>WIELKOPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.7028985507246377</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.8602555002391438</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.226545183283969e-07</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.091456946048519e-09</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>-0.70289855072463769</v>
+      </c>
+      <c r="C16">
+        <v>-0.86025550023914377</v>
+      </c>
+      <c r="D16">
+        <v>1.226545183283969E-7</v>
+      </c>
+      <c r="E16">
+        <v>4.0914569460485186E-9</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -845,23 +836,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ŚWIĘTOKRZYSKIE</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.4275362318840579</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7971014492753623</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.002989415703746229</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.064733568433835e-10</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>-0.42753623188405793</v>
+      </c>
+      <c r="C17">
+        <v>0.79710144927536231</v>
+      </c>
+      <c r="D17">
+        <v>2.9894157037462289E-3</v>
+      </c>
+      <c r="E17">
+        <v>3.0647335684338351E-10</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -870,22 +859,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>DOLNOŚLĄSKIE</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.1304347826086956</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.3893413809527089</v>
-      </c>
-      <c r="E18" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>-0.13043478260869559</v>
+      </c>
+      <c r="C18">
+        <v>0.21739130434782611</v>
+      </c>
+      <c r="D18">
+        <v>0.38934138095270893</v>
+      </c>
+      <c r="E18">
         <v>0.1446229127420921</v>
       </c>
       <c r="F18" t="b">
